--- a/database/task.xlsx
+++ b/database/task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Suntech/ProjectsGroup/document/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Library/Containers/com.microsoft.Excel/Data/Desktop/Suntech/ProjectsGroup/document/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E47518-D93C-B341-93A5-0203B23D4141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331BC9C-1043-3E46-A375-3EBDACCBB1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20120" activeTab="11" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="6" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="status" sheetId="31" r:id="rId10"/>
     <sheet name="task_verification" sheetId="32" r:id="rId11"/>
     <sheet name="status_attach_file" sheetId="33" r:id="rId12"/>
+    <sheet name="task_qualification" sheetId="34" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="121">
   <si>
     <t>Tên bảng</t>
   </si>
@@ -311,19 +312,7 @@
     <t>assignee_end_confirm</t>
   </si>
   <si>
-    <t>evaluate_date</t>
-  </si>
-  <si>
     <t>evaluate_comment</t>
-  </si>
-  <si>
-    <t>evaluate_qualification</t>
-  </si>
-  <si>
-    <t>evaluate_verification</t>
-  </si>
-  <si>
-    <t>evaluate_status</t>
   </si>
   <si>
     <t>evaluate_complete</t>
@@ -381,6 +370,45 @@
   </si>
   <si>
     <t>tsk_status_attach_file</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>0: Not sumbit yet, 1: Submit</t>
+  </si>
+  <si>
+    <t>submitStatus</t>
+  </si>
+  <si>
+    <t>evaluate_time</t>
+  </si>
+  <si>
+    <t>evaluate_qualification_id</t>
+  </si>
+  <si>
+    <t>evaluate_verification_id</t>
+  </si>
+  <si>
+    <t>evaluate_status_id</t>
+  </si>
+  <si>
+    <t>tsk_task_qualification</t>
+  </si>
+  <si>
+    <t>17/05/2020</t>
+  </si>
+  <si>
+    <t>Đánh giá định tính</t>
+  </si>
+  <si>
+    <t>access_date</t>
+  </si>
+  <si>
+    <t>is_first_remindered</t>
+  </si>
+  <si>
+    <t>is_second_remindered</t>
   </si>
 </sst>
 </file>
@@ -549,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -599,6 +627,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,13 +642,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4001,7 +4035,7 @@
       <sheetName val="Post-Java"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="A2" t="str">
             <v>varchar</v>
@@ -4486,22 +4520,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -4513,22 +4547,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -4986,16 +5020,16 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
         <v>26</v>
@@ -5129,7 +5163,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N21"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5172,22 +5206,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -5199,22 +5233,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -5377,7 +5411,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
@@ -5696,16 +5730,16 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
         <v>26</v>
@@ -5838,8 +5872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B328BFB9-BBAD-044E-B7B5-A11CE03CDF27}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5882,22 +5916,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -5909,22 +5943,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -6031,7 +6065,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>8</v>
@@ -6348,16 +6382,16 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="s">
         <v>26</v>
@@ -6475,6 +6509,716 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8758B1-8502-7047-9E57-6EB243B0A2B7}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="str">
+        <f>"@Data"</f>
+        <v>@Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
+        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
+        <v>drop table if exists tsk_task_qualification;</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="str">
+        <f>"@Table"</f>
+        <v>@Table</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
+        <f xml:space="preserve"> "create table " &amp; C8</f>
+        <v>create table tsk_task_qualification</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="str">
+        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " extends GenericEntity {"</f>
+        <v>public class TskTaskQualification extends GenericEntity {</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" ref="J11:J23" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="str">
+        <f>"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <v xml:space="preserve">    code varchar(10),</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <v xml:space="preserve">    private String code;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" ref="J13:J15" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
+        <v xml:space="preserve">    name varchar(255),</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <v xml:space="preserve">    private String name;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    access_date bigint,</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long accessDate;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    sort bigint DEFAULT 0,</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long sort = 0;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_by bigint,</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_date bigint,</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_by bigint,</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_date bigint,</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G23)</f>
+        <v/>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1" t="str">
+        <f>IF(LEN($G24)&gt;0, "    unique (" &amp; $G24 &amp; "),","")</f>
+        <v/>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT tsk_task_qualification_pk PRIMARY KEY (id)</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C28 &amp; " " &amp; D28 &amp; IF(E28="yes"," NOT NULL", "") &amp; IF(LEN(F28) &gt; 0," DEFAULT " &amp; F28, "") &amp; ";"</f>
+        <v>ALTER TABLE tsk_task_qualification
+ADD COLUMN  ;</v>
+      </c>
+      <c r="N28" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="3" t="str">
+        <f t="shared" ref="J29:J31" si="2">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C29 &amp; " " &amp; D29 &amp; IF(E29="yes"," NOT NULL", "") &amp; IF(LEN(F29) &gt; 0," DEFAULT " &amp; F29, "") &amp; ";"</f>
+        <v>ALTER TABLE tsk_task_qualification
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE tsk_task_qualification
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE tsk_task_qualification
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:H7"/>
@@ -6491,7 +7235,7 @@
   <dimension ref="H28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6556,22 +7300,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -6583,22 +7327,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -7056,16 +7800,16 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
         <v>26</v>
@@ -7242,22 +7986,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -7269,22 +8013,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -7742,16 +8486,16 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
         <v>26</v>
@@ -7885,7 +8629,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J8" sqref="J8:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7928,22 +8672,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -7955,22 +8699,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -8394,16 +9138,16 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="s">
         <v>26</v>
@@ -8537,7 +9281,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8580,22 +9324,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -8607,22 +9351,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -9071,16 +9815,16 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
         <v>26</v>
@@ -9211,10 +9955,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E504E06-C5F7-AF46-981B-368DBC12AAD3}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9257,22 +10001,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -9284,22 +10028,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -9392,7 +10136,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="str">
-        <f t="shared" ref="J11:J39" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <f t="shared" ref="J11:J42" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
         <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
       </c>
       <c r="K11" s="1"/>
@@ -9658,40 +10402,37 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>11</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    second_reminder bigint,</v>
+        <v xml:space="preserve">    is_first_remindered boolean DEFAULT false,</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D21, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;IF(AND(LEN($F21)&gt;0, $C21&lt;&gt;"id")," = " &amp; $F21,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long secondReminder;</v>
-      </c>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>8</v>
@@ -9703,23 +10444,21 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    assignee_start_time bigint,</v>
+        <v xml:space="preserve">    second_reminder bigint,</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; $F22,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long assigneeStartTime;</v>
+        <v xml:space="preserve">    private Long secondReminder;</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>13</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="14" t="s">
-        <v>86</v>
+      <c r="C23" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>45</v>
@@ -9733,23 +10472,20 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    assignee_start_confirm boolean DEFAULT false,</v>
+        <v xml:space="preserve">    is_second_remindered boolean DEFAULT false,</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; $F23,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean assigneeStartConfirm = false;</v>
-      </c>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="14" t="s">
-        <v>85</v>
+      <c r="C24" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>8</v>
@@ -9761,23 +10497,23 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    assignee_end_time bigint,</v>
+        <v xml:space="preserve">    assignee_start_time bigint,</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; $F24,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long assigneeEndTime;</v>
+        <v xml:space="preserve">    private Long assigneeStartTime;</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>45</v>
@@ -9791,23 +10527,23 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    assignee_end_confirm boolean DEFAULT false,</v>
+        <v xml:space="preserve">    assignee_start_confirm boolean DEFAULT false,</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean assigneeEndConfirm = false;</v>
+        <v xml:space="preserve">    private Boolean assigneeStartConfirm = false;</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>8</v>
@@ -9819,51 +10555,53 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    evaluate_date bigint,</v>
+        <v xml:space="preserve">    assignee_end_time bigint,</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long evaluateDate;</v>
+        <v xml:space="preserve">    private Long assigneeEndTime;</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    evaluate_comment text,</v>
+        <v xml:space="preserve">    assignee_end_confirm boolean DEFAULT false,</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
-        <v xml:space="preserve">    private String evaluateComment;</v>
+        <v xml:space="preserve">    private Boolean assigneeEndConfirm = false;</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="14" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>8</v>
@@ -9875,26 +10613,26 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    evaluate_qualification bigint,</v>
+        <v xml:space="preserve">    evaluate_time bigint,</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long evaluateQualification;</v>
+        <v xml:space="preserve">    private Long evaluateTime;</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -9903,23 +10641,23 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    evaluate_verification bigint,</v>
+        <v xml:space="preserve">    evaluate_comment text,</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long evaluateVerification;</v>
+        <v xml:space="preserve">    private String evaluateComment;</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="7" t="s">
-        <v>92</v>
+      <c r="C30" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>8</v>
@@ -9931,149 +10669,154 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    evaluate_status bigint,</v>
+        <v xml:space="preserve">    evaluate_qualification_id bigint,</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long evaluateStatus;</v>
+        <v xml:space="preserve">    private Long evaluateQualificationId;</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
-        <v>93</v>
+      <c r="C31" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    evaluate_complete boolean DEFAULT false,</v>
+        <v xml:space="preserve">    evaluate_verification_id bigint,</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean evaluateComplete = false;</v>
+        <v xml:space="preserve">    private Long evaluateVerificationId;</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>22</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+        <v xml:space="preserve">    evaluate_status_id bigint,</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; $F32,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long evaluateStatusId;</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>23</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="7" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_by bigint,</v>
+        <v xml:space="preserve">    evaluate_complete boolean DEFAULT false,</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D33, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C33))&amp;MID(SUBSTITUTE(PROPER($C33),"_",""),2,LEN($C33))&amp;IF(AND(LEN($F33)&gt;0, $C33&lt;&gt;"id")," = " &amp; $F33,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean evaluateComplete = false;</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>24</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_date bigint,</v>
+        <v xml:space="preserve">    submitStatus smallint DEFAULT 0,</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D34, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C34))&amp;MID(SUBSTITUTE(PROPER($C34),"_",""),2,LEN($C34))&amp;IF(AND(LEN($F34)&gt;0, $C34&lt;&gt;"id")," = " &amp; $F34,"")&amp;";"</f>
+        <v xml:space="preserve">    private Integer submitstatus = 0;</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="F35" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="17"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_by bigint,</v>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
@@ -10082,13 +10825,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>8</v>
@@ -10100,7 +10843,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_date bigint,</v>
+        <v xml:space="preserve">    created_by bigint,</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
@@ -10109,13 +10852,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>8</v>
@@ -10127,24 +10870,22 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_by bigint,</v>
+        <v xml:space="preserve">    created_date bigint,</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>8</v>
@@ -10156,7 +10897,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_date bigint,</v>
+        <v xml:space="preserve">    updated_by bigint,</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="2"/>
@@ -10165,184 +10906,210 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
       <c r="I39" s="2"/>
       <c r="J39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+        <v xml:space="preserve">    updated_date bigint,</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(",",,G11:G39)</f>
-        <v/>
-      </c>
-      <c r="H40" s="2"/>
+      <c r="A40" s="5">
+        <v>28</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="2"/>
       <c r="J40" s="1" t="str">
-        <f>IF(LEN($G40)&gt;0, "    unique (" &amp; $G40 &amp; "),","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="5">
+        <v>29</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="2"/>
       <c r="J41" s="1" t="str">
-        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
-        <v xml:space="preserve">    CONSTRAINT tsk_task_pk PRIMARY KEY (id)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>30</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="1" t="s">
-        <v>26</v>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D42, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C42))&amp;MID(SUBSTITUTE(PROPER($C42),"_",""),2,LEN($C42))&amp;IF(AND(LEN($F42)&gt;0, $C42&lt;&gt;"id")," = " &amp; $F42,"")&amp;";"</f>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G42)</f>
+        <v/>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1" t="str">
+        <f>IF(LEN($G43)&gt;0, "    unique (" &amp; $G43 &amp; "),","")</f>
+        <v/>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT tsk_task_pk PRIMARY KEY (id)</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D45, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C45))&amp;MID(SUBSTITUTE(PROPER($C45),"_",""),2,LEN($C45))&amp;IF(AND(LEN($F45)&gt;0, $C45&lt;&gt;"id")," = " &amp; $F45,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="13" t="s">
+      <c r="G46" s="18"/>
+      <c r="H46" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N43" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D43, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C43))&amp;MID(SUBSTITUTE(PROPER($C43),"_",""),2,LEN($C43))&amp;IF(AND(LEN($F43)&gt;0, $C43&lt;&gt;"id")," = " &amp; $F43,"")&amp;";"</f>
+      <c r="N46" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D46, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C46))&amp;MID(SUBSTITUTE(PROPER($C46),"_",""),2,LEN($C46))&amp;IF(AND(LEN($F46)&gt;0, $C46&lt;&gt;"id")," = " &amp; $F46,"")&amp;";"</f>
         <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>1</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="J44" s="3" t="str">
-        <f>"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C44 &amp; " " &amp; D44 &amp; IF(E44="yes"," NOT NULL", "") &amp; IF(LEN(F44) &gt; 0," DEFAULT " &amp; F44, "") &amp; ";"</f>
-        <v>ALTER TABLE tsk_task
-ADD COLUMN  ;</v>
-      </c>
-      <c r="N44" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D44, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C44))&amp;MID(SUBSTITUTE(PROPER($C44),"_",""),2,LEN($C44))&amp;IF(AND(LEN($F44)&gt;0, $C44&lt;&gt;"id")," = " &amp; $F44,"")&amp;";"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>2</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="J45" s="3" t="str">
-        <f t="shared" ref="J45:J47" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C45 &amp; " " &amp; D45 &amp; IF(E45="yes"," NOT NULL", "") &amp; IF(LEN(F45) &gt; 0," DEFAULT " &amp; F45, "") &amp; ";"</f>
-        <v>ALTER TABLE tsk_task
-ADD COLUMN  ;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>3</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="J46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE tsk_task
-ADD COLUMN  ;</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -10352,14 +11119,71 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
       <c r="J47" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C47 &amp; " " &amp; D47 &amp; IF(E47="yes"," NOT NULL", "") &amp; IF(LEN(F47) &gt; 0," DEFAULT " &amp; F47, "") &amp; ";"</f>
+        <v>ALTER TABLE tsk_task
+ADD COLUMN  ;</v>
+      </c>
+      <c r="N47" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D47, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C47))&amp;MID(SUBSTITUTE(PROPER($C47),"_",""),2,LEN($C47))&amp;IF(AND(LEN($F47)&gt;0, $C47&lt;&gt;"id")," = " &amp; $F47,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="3" t="str">
+        <f t="shared" ref="J48:J50" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C48 &amp; " " &amp; D48 &amp; IF(E48="yes"," NOT NULL", "") &amp; IF(LEN(F48) &gt; 0," DEFAULT " &amp; F48, "") &amp; ";"</f>
+        <v>ALTER TABLE tsk_task
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ALTER TABLE tsk_task
 ADD COLUMN  ;</v>
       </c>
     </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE tsk_task
+ADD COLUMN  ;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:H7"/>
@@ -10368,6 +11192,7 @@
     <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10419,22 +11244,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -10446,22 +11271,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -10633,7 +11458,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="str">
@@ -10910,16 +11735,16 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
         <v>26</v>
@@ -11050,10 +11875,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADDA249-67D1-9741-AF8F-2180FF8CEC31}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11096,22 +11921,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -11123,22 +11948,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -11231,7 +12056,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="str">
-        <f t="shared" ref="J11:J26" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <f t="shared" ref="J11:J27" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
         <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
       </c>
       <c r="K11" s="1"/>
@@ -11273,7 +12098,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>8</v>
@@ -11301,7 +12126,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
@@ -11357,7 +12182,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>8</v>
@@ -11385,7 +12210,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>52</v>
@@ -11422,7 +12247,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1" t="str">
@@ -11441,51 +12266,56 @@
       <c r="A19" s="5">
         <v>9</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+        <v xml:space="preserve">    submitStatus smallint DEFAULT 0,</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
+        <v xml:space="preserve">    private Integer submitstatus = 0;</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="17"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_by bigint,</v>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
@@ -11497,10 +12327,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>8</v>
@@ -11512,7 +12342,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_date bigint,</v>
+        <v xml:space="preserve">    created_by bigint,</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
@@ -11524,10 +12354,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>8</v>
@@ -11539,7 +12369,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_by bigint,</v>
+        <v xml:space="preserve">    created_date bigint,</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
@@ -11551,10 +12381,10 @@
         <v>13</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>8</v>
@@ -11566,7 +12396,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_date bigint,</v>
+        <v xml:space="preserve">    updated_by bigint,</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
@@ -11578,10 +12408,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>8</v>
@@ -11593,24 +12423,22 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_by bigint,</v>
+        <v xml:space="preserve">    updated_date bigint,</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>8</v>
@@ -11622,62 +12450,69 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_date bigint,</v>
+        <v xml:space="preserve">    deleted_by bigint,</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+        <v xml:space="preserve">    deleted_date bigint,</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(",",,G11:G26)</f>
-        <v/>
-      </c>
-      <c r="H27" s="2"/>
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1" t="str">
-        <f>IF(LEN($G27)&gt;0, "    unique (" &amp; $G27 &amp; "),","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -11686,85 +12521,85 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G27)</f>
+        <v/>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="str">
-        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
-        <v xml:space="preserve">    CONSTRAINT tsk_status_detail_pk PRIMARY KEY (id)</v>
+        <f>IF(LEN($G28)&gt;0, "    unique (" &amp; $G28 &amp; "),","")</f>
+        <v/>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="1" t="s">
-        <v>26</v>
+      <c r="J29" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT tsk_status_detail_pk PRIMARY KEY (id)</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2" t="e">
         <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="J31" s="3" t="str">
-        <f>"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C31 &amp; " " &amp; D31 &amp; IF(E31="yes"," NOT NULL", "") &amp; IF(LEN(F31) &gt; 0," DEFAULT " &amp; F31, "") &amp; ";"</f>
-        <v>ALTER TABLE tsk_status_detail
-ADD COLUMN  ;</v>
+      <c r="A31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="N31" s="2" t="e">
         <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
@@ -11773,7 +12608,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -11783,15 +12618,19 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="J32" s="3" t="str">
-        <f t="shared" ref="J32:J34" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
 ADD COLUMN " &amp; C32 &amp; " " &amp; D32 &amp; IF(E32="yes"," NOT NULL", "") &amp; IF(LEN(F32) &gt; 0," DEFAULT " &amp; F32, "") &amp; ";"</f>
         <v>ALTER TABLE tsk_status_detail
 ADD COLUMN  ;</v>
       </c>
+      <c r="N32" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; $F32,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -11801,14 +12640,15 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="J33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J33:J35" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C33 &amp; " " &amp; D33 &amp; IF(E33="yes"," NOT NULL", "") &amp; IF(LEN(F33) &gt; 0," DEFAULT " &amp; F33, "") &amp; ";"</f>
         <v>ALTER TABLE tsk_status_detail
 ADD COLUMN  ;</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -11823,9 +12663,26 @@
 ADD COLUMN  ;</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE tsk_status_detail
+ADD COLUMN  ;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:H7"/>

--- a/database/task.xlsx
+++ b/database/task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Library/Containers/com.microsoft.Excel/Data/Desktop/Suntech/ProjectsGroup/document/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Suntech/ProjectsGroup/document/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E75B8EE-44C7-CB4A-808C-7E2C66E205D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C00922-C970-224C-BC1D-F9A139102C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="6" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="120">
   <si>
     <t>Tên bảng</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>evaluate_comment</t>
-  </si>
-  <si>
-    <t>evaluate_complete</t>
   </si>
   <si>
     <t>Phân bổ tổ chức</t>
@@ -4525,7 +4522,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
@@ -4552,14 +4549,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -5211,7 +5208,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
@@ -5238,14 +5235,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -5411,7 +5408,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
@@ -5921,7 +5918,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
@@ -5948,14 +5945,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -6065,7 +6062,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>8</v>
@@ -6573,7 +6570,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
@@ -6600,14 +6597,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -6773,7 +6770,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
@@ -9955,10 +9952,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E504E06-C5F7-AF46-981B-368DBC12AAD3}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10136,7 +10133,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="str">
-        <f t="shared" ref="J11:J42" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <f t="shared" ref="J11:J41" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
         <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
       </c>
       <c r="K11" s="1"/>
@@ -10405,7 +10402,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>45</v>
@@ -10458,7 +10455,7 @@
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>45</v>
@@ -10601,7 +10598,7 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>8</v>
@@ -10657,7 +10654,7 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>8</v>
@@ -10685,7 +10682,7 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>8</v>
@@ -10713,7 +10710,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>8</v>
@@ -10737,86 +10734,83 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
-        <v>51</v>
+      <c r="F33" s="17">
+        <v>0</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    evaluate_complete boolean DEFAULT false,</v>
+        <v xml:space="preserve">    submitStatus smallint DEFAULT 0,</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D33, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C33))&amp;MID(SUBSTITUTE(PROPER($C33),"_",""),2,LEN($C33))&amp;IF(AND(LEN($F33)&gt;0, $C33&lt;&gt;"id")," = " &amp; $F33,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean evaluateComplete = false;</v>
+        <v xml:space="preserve">    private Integer submitstatus = 0;</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>22</v>
-      </c>
-      <c r="B34" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C34" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    submitStatus smallint DEFAULT 0,</v>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D34, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C34))&amp;MID(SUBSTITUTE(PROPER($C34),"_",""),2,LEN($C34))&amp;IF(AND(LEN($F34)&gt;0, $C34&lt;&gt;"id")," = " &amp; $F34,"")&amp;";"</f>
-        <v xml:space="preserve">    private Integer submitstatus = 0;</v>
-      </c>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="17"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+        <v xml:space="preserve">    created_by bigint,</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
@@ -10825,13 +10819,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>8</v>
@@ -10843,7 +10837,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_by bigint,</v>
+        <v xml:space="preserve">    created_date bigint,</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
@@ -10852,13 +10846,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>8</v>
@@ -10870,7 +10864,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_date bigint,</v>
+        <v xml:space="preserve">    updated_by bigint,</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
@@ -10879,13 +10873,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>8</v>
@@ -10897,7 +10891,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_by bigint,</v>
+        <v xml:space="preserve">    updated_date bigint,</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="2"/>
@@ -10906,13 +10900,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>8</v>
@@ -10924,22 +10918,24 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_date bigint,</v>
+        <v xml:space="preserve">    deleted_by bigint,</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>8</v>
@@ -10951,69 +10947,62 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_by bigint,</v>
+        <v xml:space="preserve">    deleted_date bigint,</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
       <c r="I41" s="2"/>
       <c r="J41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_date bigint,</v>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>30</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G41)</f>
+        <v/>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+        <f>IF(LEN($G42)&gt;0, "    unique (" &amp; $G42 &amp; "),","")</f>
+        <v/>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
@@ -11022,85 +11011,85 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(",",,G11:G42)</f>
-        <v/>
-      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="str">
-        <f>IF(LEN($G43)&gt;0, "    unique (" &amp; $G43 &amp; "),","")</f>
-        <v/>
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT tsk_task_pk PRIMARY KEY (id)</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+    <row r="44" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="1" t="str">
-        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
-        <v xml:space="preserve">    CONSTRAINT tsk_task_pk PRIMARY KEY (id)</v>
+      <c r="J44" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="N44" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D44, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C44))&amp;MID(SUBSTITUTE(PROPER($C44),"_",""),2,LEN($C44))&amp;IF(AND(LEN($F44)&gt;0, $C44&lt;&gt;"id")," = " &amp; $F44,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="N45" s="2" t="e">
         <f>"    private "&amp; VLOOKUP($D45, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C45))&amp;MID(SUBSTITUTE(PROPER($C45),"_",""),2,LEN($C45))&amp;IF(AND(LEN($F45)&gt;0, $C45&lt;&gt;"id")," = " &amp; $F45,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="13" t="s">
-        <v>32</v>
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="J46" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C46 &amp; " " &amp; D46 &amp; IF(E46="yes"," NOT NULL", "") &amp; IF(LEN(F46) &gt; 0," DEFAULT " &amp; F46, "") &amp; ";"</f>
+        <v>ALTER TABLE tsk_task
+ADD COLUMN  ;</v>
       </c>
       <c r="N46" s="2" t="e">
         <f>"    private "&amp; VLOOKUP($D46, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C46))&amp;MID(SUBSTITUTE(PROPER($C46),"_",""),2,LEN($C46))&amp;IF(AND(LEN($F46)&gt;0, $C46&lt;&gt;"id")," = " &amp; $F46,"")&amp;";"</f>
@@ -11109,7 +11098,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -11119,19 +11108,15 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
       <c r="J47" s="3" t="str">
-        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+        <f t="shared" ref="J47:J49" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
 ADD COLUMN " &amp; C47 &amp; " " &amp; D47 &amp; IF(E47="yes"," NOT NULL", "") &amp; IF(LEN(F47) &gt; 0," DEFAULT " &amp; F47, "") &amp; ";"</f>
         <v>ALTER TABLE tsk_task
 ADD COLUMN  ;</v>
       </c>
-      <c r="N47" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D47, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C47))&amp;MID(SUBSTITUTE(PROPER($C47),"_",""),2,LEN($C47))&amp;IF(AND(LEN($F47)&gt;0, $C47&lt;&gt;"id")," = " &amp; $F47,"")&amp;";"</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -11141,15 +11126,14 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
       <c r="J48" s="3" t="str">
-        <f t="shared" ref="J48:J50" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C48 &amp; " " &amp; D48 &amp; IF(E48="yes"," NOT NULL", "") &amp; IF(LEN(F48) &gt; 0," DEFAULT " &amp; F48, "") &amp; ";"</f>
+        <f t="shared" si="1"/>
         <v>ALTER TABLE tsk_task
 ADD COLUMN  ;</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -11164,26 +11148,9 @@
 ADD COLUMN  ;</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>4</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="J50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE tsk_task
-ADD COLUMN  ;</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:H7"/>
@@ -11249,7 +11216,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
@@ -11276,14 +11243,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -11458,7 +11425,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="str">
@@ -11926,7 +11893,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="12" t="s">
@@ -11953,14 +11920,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -12098,7 +12065,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>8</v>
@@ -12126,7 +12093,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
@@ -12182,7 +12149,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>8</v>
@@ -12210,7 +12177,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>52</v>
@@ -12247,7 +12214,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1" t="str">
@@ -12268,10 +12235,10 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17">
@@ -12279,7 +12246,7 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="str">
